--- a/evaluation/results/hybrid/autoencoder/LOF/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5645677694770544</v>
       </c>
       <c r="D2">
-        <v>0.1235955056179775</v>
+        <v>0.9906367041198502</v>
       </c>
       <c r="E2">
-        <v>0.2122186495176849</v>
+        <v>0.7192386131883073</v>
       </c>
       <c r="F2">
-        <v>0.1483812949640288</v>
+        <v>0.8607224210868858</v>
       </c>
       <c r="G2">
-        <v>0.1276975740437565</v>
+        <v>0.9626933575978162</v>
       </c>
       <c r="H2">
-        <v>0.5411985018726592</v>
+        <v>0.7775954214535201</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>529</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>408</v>
       </c>
       <c r="K2">
-        <v>512</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>468</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5224489795918368</v>
+        <v>0.9618320610687023</v>
       </c>
       <c r="C2">
-        <v>0.9588014981273408</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="D2">
-        <v>0.6763540290620872</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.5645677694770544</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179775</v>
+        <v>0.9906367041198502</v>
       </c>
       <c r="D3">
-        <v>0.2122186495176849</v>
+        <v>0.7192386131883073</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="C4">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D4">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="E4">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6362244897959184</v>
+        <v>0.7631999152728783</v>
       </c>
       <c r="C5">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D5">
-        <v>0.444286339289886</v>
+        <v>0.54909299080468</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6362244897959184</v>
+        <v>0.7631999152728784</v>
       </c>
       <c r="C6">
-        <v>0.5411985018726592</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D6">
-        <v>0.444286339289886</v>
+        <v>0.54909299080468</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>512</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>468</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
